--- a/proj-result.xlsx
+++ b/proj-result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iselpt-my.sharepoint.com/personal/a45881_alunos_isel_pt/Documents/Mestrado/IASC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="300" documentId="13_ncr:1_{DB835943-7612-4B80-BA1E-15DAA7881A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9A160FA-312A-48D0-853F-55BDF883A961}"/>
+  <xr:revisionPtr revIDLastSave="301" documentId="13_ncr:1_{DB835943-7612-4B80-BA1E-15DAA7881A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8638EA3F-1381-4DCF-BBB6-33D2CA9C9F9F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="23">
   <si>
     <t>r = 0.05</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>TANH -&gt; SIGMOID ?</t>
+  </si>
+  <si>
+    <t>8 HL</t>
   </si>
 </sst>
 </file>
@@ -687,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -722,7 +725,9 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="11" t="s">

--- a/proj-result.xlsx
+++ b/proj-result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iselpt-my.sharepoint.com/personal/a45881_alunos_isel_pt/Documents/Mestrado/IASC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iselpt-my.sharepoint.com/personal/a45881_alunos_isel_pt/Documents/Mestrado/Semestre 1/IASC/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="301" documentId="13_ncr:1_{DB835943-7612-4B80-BA1E-15DAA7881A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8638EA3F-1381-4DCF-BBB6-33D2CA9C9F9F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="696" yWindow="1584" windowWidth="10140" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/proj-result.xlsx
+++ b/proj-result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iselpt-my.sharepoint.com/personal/a45881_alunos_isel_pt/Documents/Mestrado/Semestre 1/IASC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="350" documentId="13_ncr:1_{DB835943-7612-4B80-BA1E-15DAA7881A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB9DA277-8DFB-4B85-A89F-1F4CAD96CA3B}"/>
+  <xr:revisionPtr revIDLastSave="415" documentId="13_ncr:1_{DB835943-7612-4B80-BA1E-15DAA7881A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4A89DD9-7951-446A-8C1D-D04F04E24F87}"/>
   <bookViews>
-    <workbookView xWindow="-4740" yWindow="2832" windowWidth="10140" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11748" yWindow="3360" windowWidth="10140" windowHeight="7752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="25">
   <si>
     <t>r = 0.05</t>
   </si>
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1538,7 +1538,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:7">
       <c r="A49" s="12">
         <v>9</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1">
+    <row r="50" spans="1:7" ht="15" thickBot="1">
       <c r="A50" s="11">
         <v>10</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1">
+    <row r="51" spans="1:7" ht="15" thickBot="1">
       <c r="A51" s="5" t="s">
         <v>6</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:7">
       <c r="A52" s="14"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1611,20 +1611,23 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:7">
       <c r="A54" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:7">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:7">
       <c r="A56" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
         <v>5</v>
       </c>
@@ -1644,7 +1647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:7">
       <c r="A58" s="12">
         <v>1</v>
       </c>
@@ -1664,7 +1667,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:7">
       <c r="A59" s="12">
         <f>A58+1</f>
         <v>2</v>
@@ -1685,7 +1688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:7">
       <c r="A60" s="12">
         <v>3</v>
       </c>
@@ -1705,7 +1708,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:7">
       <c r="A61" s="12">
         <v>4</v>
       </c>
@@ -1725,7 +1728,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:7">
       <c r="A62" s="12">
         <v>5</v>
       </c>
@@ -1745,7 +1748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:7">
       <c r="A63" s="12">
         <v>6</v>
       </c>
@@ -1765,7 +1768,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:7">
       <c r="A64" s="12">
         <v>7</v>
       </c>
@@ -1785,7 +1788,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:7">
       <c r="A65" s="12">
         <v>8</v>
       </c>
@@ -1805,7 +1808,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:7">
       <c r="A66" s="12">
         <v>9</v>
       </c>
@@ -1825,7 +1828,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" thickBot="1">
+    <row r="67" spans="1:7" ht="15" thickBot="1">
       <c r="A67" s="11">
         <v>10</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" thickBot="1">
+    <row r="68" spans="1:7" ht="15" thickBot="1">
       <c r="A68" s="5" t="s">
         <v>6</v>
       </c>
@@ -1870,20 +1873,23 @@
         <v>723</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:7">
       <c r="A71" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:7">
       <c r="A72" s="7"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:7">
       <c r="A73" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:7">
       <c r="A74" s="2" t="s">
         <v>5</v>
       </c>
@@ -1903,130 +1909,230 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:7">
       <c r="A75" s="12">
         <v>1</v>
       </c>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="B75" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="12">
+        <v>94</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" s="12">
+        <v>12</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="12">
         <f>A75+1</f>
         <v>2</v>
       </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="B76" s="12">
+        <v>176</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="12">
+        <v>167</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="12">
         <v>3</v>
       </c>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="B77" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="12">
+        <v>72</v>
+      </c>
+      <c r="D77" s="12">
+        <v>43</v>
+      </c>
+      <c r="E77" s="12">
+        <v>156</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="12">
         <v>4</v>
       </c>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="B78" s="12">
+        <v>114</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="12">
+        <v>84</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="12">
         <v>5</v>
       </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="B79" s="12">
+        <v>481</v>
+      </c>
+      <c r="C79" s="12">
+        <v>129</v>
+      </c>
+      <c r="D79" s="12">
+        <v>40</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="12">
         <v>6</v>
       </c>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
+      <c r="B80" s="12">
+        <v>506</v>
+      </c>
+      <c r="C80" s="12">
+        <v>118</v>
+      </c>
+      <c r="D80" s="12">
+        <v>39</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="12">
         <v>7</v>
       </c>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
+      <c r="B81" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" s="12">
+        <v>24</v>
+      </c>
+      <c r="D81" s="12">
+        <v>19</v>
+      </c>
+      <c r="E81" s="12">
+        <v>27</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="12">
         <v>8</v>
       </c>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
+      <c r="B82" s="12">
+        <v>408</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" s="12">
+        <v>148</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="12">
         <v>9</v>
       </c>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
+      <c r="B83" s="12">
+        <v>285</v>
+      </c>
+      <c r="C83" s="12">
+        <v>51</v>
+      </c>
+      <c r="D83" s="12">
+        <v>45</v>
+      </c>
+      <c r="E83" s="12">
+        <v>41</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="84" spans="1:6" ht="15" thickBot="1">
       <c r="A84" s="11">
         <v>10</v>
       </c>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
+      <c r="B84" s="11">
+        <v>120</v>
+      </c>
+      <c r="C84" s="11">
+        <v>722</v>
+      </c>
+      <c r="D84" s="11">
+        <v>92</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84" s="11">
+        <v>416</v>
+      </c>
     </row>
     <row r="85" spans="1:6" ht="15" thickBot="1">
       <c r="A85" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="6" t="e">
+      <c r="B85" s="6">
         <f>AVERAGE(B75:B84)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C85" s="6" t="e">
+        <v>298.57142857142856</v>
+      </c>
+      <c r="C85" s="6">
         <f>AVERAGE(C75:C84)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D85" s="6" t="e">
+        <v>172.85714285714286</v>
+      </c>
+      <c r="D85" s="6">
         <f t="shared" ref="D85" si="8">AVERAGE(D75:D84)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E85" s="6" t="e">
+        <v>75.222222222222229</v>
+      </c>
+      <c r="E85" s="6">
         <f t="shared" ref="E85" si="9">AVERAGE(E75:E84)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F85" s="13" t="e">
+        <v>59</v>
+      </c>
+      <c r="F85" s="13">
         <f t="shared" ref="F85" si="10">AVERAGE(F75:F84)</f>
-        <v>#DIV/0!</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
